--- a/Document/案例综合.xlsx
+++ b/Document/案例综合.xlsx
@@ -983,7 +983,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1161,8 +1161,8 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -1291,8 +1291,8 @@
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -1421,8 +1421,8 @@
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
@@ -1551,8 +1551,8 @@
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
+      <c r="C18" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -1681,8 +1681,8 @@
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>0</v>
+      <c r="C23" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1759,8 +1759,8 @@
       <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>67</v>
+      <c r="C26" t="s">
+        <v>24</v>
       </c>
       <c r="D26" s="1">
         <v>10</v>
@@ -1915,8 +1915,8 @@
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>0</v>
+      <c r="C32" t="s">
+        <v>24</v>
       </c>
       <c r="D32" s="1">
         <v>16</v>
@@ -2019,8 +2019,8 @@
       <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>0</v>
+      <c r="C36" t="s">
+        <v>24</v>
       </c>
       <c r="D36" s="1">
         <v>20</v>
@@ -2149,8 +2149,8 @@
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>0</v>
+      <c r="C41" t="s">
+        <v>25</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -2279,8 +2279,8 @@
       <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>0</v>
+      <c r="C46" t="s">
+        <v>25</v>
       </c>
       <c r="D46" s="1">
         <v>7</v>
@@ -2409,8 +2409,8 @@
       <c r="B51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>0</v>
+      <c r="C51" t="s">
+        <v>22</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -2487,8 +2487,8 @@
       <c r="B54" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>0</v>
+      <c r="C54" t="s">
+        <v>22</v>
       </c>
       <c r="D54" s="1">
         <v>5</v>
@@ -2565,8 +2565,8 @@
       <c r="B57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>0</v>
+      <c r="C57" t="s">
+        <v>22</v>
       </c>
       <c r="D57" s="1">
         <v>8</v>
@@ -2721,8 +2721,8 @@
       <c r="B63" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>0</v>
+      <c r="C63" t="s">
+        <v>22</v>
       </c>
       <c r="D63" s="1">
         <v>14</v>
@@ -2877,8 +2877,8 @@
       <c r="B69" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>0</v>
+      <c r="C69" t="s">
+        <v>26</v>
       </c>
       <c r="D69" s="1">
         <v>2</v>
@@ -2955,8 +2955,8 @@
       <c r="B72" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>0</v>
+      <c r="C72" t="s">
+        <v>26</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
@@ -3085,8 +3085,8 @@
       <c r="B77" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>0</v>
+      <c r="C77" t="s">
+        <v>26</v>
       </c>
       <c r="D77" s="1">
         <v>10</v>
@@ -3241,8 +3241,8 @@
       <c r="B83" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>0</v>
+      <c r="C83" t="s">
+        <v>27</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -3319,8 +3319,8 @@
       <c r="B86" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>0</v>
+      <c r="C86" t="s">
+        <v>27</v>
       </c>
       <c r="D86" s="1">
         <v>5</v>
@@ -3423,8 +3423,8 @@
       <c r="B90" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>0</v>
+      <c r="C90" t="s">
+        <v>27</v>
       </c>
       <c r="D90" s="1">
         <v>9</v>
